--- a/stillAvailableCourses.xlsx
+++ b/stillAvailableCourses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="211">
   <si>
     <t xml:space="preserve">student group</t>
   </si>
@@ -40,118 +40,112 @@
     <t xml:space="preserve">BIO1</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CHY323</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHY323</t>
   </si>
   <si>
     <t xml:space="preserve">BIO2</t>
   </si>
   <si>
-    <t xml:space="preserve">CHD211,CHD413,CHD471,CHY212,CHY400,EED202,HIS216,MAT184,MED201,MED412,PHY101,PHY201,SOC204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD211,CHY212,EED202,HIS216,MAT184,PHY101,PHY201,SOC204</t>
+    <t xml:space="preserve">BIO401,CHY212,CHY351,CHY400,CSD411,EED201,HIS305,PHY101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHY212,CHY351,EED201,HIS305,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">BIO3</t>
   </si>
   <si>
-    <t xml:space="preserve">CHD211,CHD471,CHY212,MAT390,MAT440,MED101,MED303,PHY101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD211,CHY212,MAT390,MAT440,MED101,MED303,PHY101</t>
+    <t xml:space="preserve">CHD211,CHY212,HIS305,MED101,MED303,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">BIO4</t>
   </si>
   <si>
-    <t xml:space="preserve">BDA483,BIO104,BIO201,BIO204,BIO301,BIO304,CED103,CED202,CED302,CED303,CED307,CED431,CHD210,CHD211,CHD313,CHD413,CHD416,CHD471,CHY111,CHY211,CHY212,CHY313,CHY343,CHY400,COM192,COM196,CSD101,CSD205,CSD304,CSD320,CSD337,CSD339,CSD402,CSD429,ECO102,ECO301,ECO402,ECO415,ECO422,EED103,EED202,EED206,EED304,EED306,EED352,EED354,EED371,EED375,EED376,ENG104,ENG340,HIS102,HIS305,HIS314,HIS317,INT133,INT203,INT250,INT254,MAT100,MAT184,MAT205,MAT330,MAT390,MAT399,MAT440,MAT442,MED101,MED104,MED201,MED208,MED303,MED308,MED309,MED318,MED409,MED410,MED412,PHY101,PHY105,PHY201,PHY203,PHY207,PHY303,PHY307,PHY413,PHY417,SOC101,SOC201,SOC204,SOC301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDA483,CED202,CED302,CED307,CHD210,CHD211,CHY111,CHY211,CHY212,COM192,COM196,CSD101,CSD205,CSD304,ECO301,ECO402,ECO415,ECO422,EED202,EED206,EED304,EED306,EED352,EED354,EED371,EED376,ENG340,HIS102,HIS305,HIS314,HIS317,INT133,INT203,INT250,INT254,MAT184,MAT330,MAT390,MAT440,MAT442,MED101,MED104,MED303,MED309,PHY101,PHY105,PHY201,PHY203,PHY207,PHY303,PHY307,PHY413,PHY417,SOC101,SOC201,SOC204,SOC301</t>
+    <t xml:space="preserve">BDA483,BIO101,BIO201,BIO202,BIO204,BIO301,BIO304,CED103,CED202,CED302,CED303,CED307,CED431,CHD210,CHD211,CHD214,CHD317,CHD319,CHD372,CHD471,CHY111,CHY211,CHY212,CHY313,CHY343,CHY400,COM192,COM196,CSD101,CSD205,CSD207,CSD304,CSD320,CSD339,CSD429,ECO221,ECO301,ECO402,ECO415,EED103,EED202,EED206,EED304,EED306,EED352,EED354,EED371,EED375,EED376,ENG104,ENG340,HIS102,HIS216,HIS305,HIS314,HIS317,INT203,INT250,MAT150,MAT184,MAT205,MAT330,MAT390,MAT399,MAT440,MAT442,MED101,MED104,MED201,MED208,MED303,MED308,MED309,MED318,MED409,MED410,MED412,PHY101,PHY105,PHY201,PHY203,PHY207,PHY303,PHY307,PHY413,PHY417,PHY563,SOC101,SOC201,SOC204,SOC301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDA483,CED202,CED302,CED307,CHD210,CHD211,CHD214,CHD319,CHD372,CHY111,CHY211,CHY212,COM192,COM196,CSD101,CSD205,CSD207,CSD304,ECO221,ECO301,ECO402,ECO415,EED202,EED206,EED304,EED306,EED352,EED354,EED371,EED376,ENG340,HIS102,HIS216,HIS305,HIS314,HIS317,INT203,INT250,MAT184,MAT330,MAT390,MAT440,MAT442,MED101,MED104,MED303,MED309,PHY101,PHY105,PHY201,PHY203,PHY207,PHY303,PHY307,PHY413,PHY417,PHY563,SOC101,SOC201,SOC204,SOC301</t>
   </si>
   <si>
     <t xml:space="preserve">CED1</t>
   </si>
   <si>
-    <t xml:space="preserve">BDA483,BIO401,CED303,CED305,CHD211,CHD413,CHD471,CHY212,CHY321,CHY323,CSD206,DES211,ECO367,EED103,EED201,EED202,EED353,EED354,EED361,ENG104,ENG341,HIS305,INT201,INT254,MAT101,MAT184,MED105,MED308,MED410,PHY101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDA483,CHD211,CHY212,CHY323,CSD206,DES211,ECO367,EED201,EED202,EED353,EED354,EED361,ENG341,HIS305,INT201,INT254,MAT101,MAT184,MED105,PHY101</t>
+    <t xml:space="preserve">BDA483,BIO401,CED303,CED305,CHD372,CHD413,CHY212,CHY321,CHY323,CHY400,CSD101,DES211,ECO101,ECO213,ECO301,ECO403,ECO422,EED201,EED206,EED353,EED361,ENG341,HIS216,INT201,MAT020,MAT101,MAT184,MAT220,MED105,MED412,PHY101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDA483,CHD372,CHY212,CHY323,CSD101,DES211,ECO101,ECO213,ECO301,ECO403,ECO422,EED201,EED206,EED353,EED361,ENG341,HIS216,INT201,MAT101,MAT184,MAT220,MED105,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">CED2</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CHD211,CHD471,CHY212,CHY323,DES211,ECO367,ENG341,HIS305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD211,CHY212,CHY323,DES211,ECO367,ENG341,HIS305</t>
+    <t xml:space="preserve">BIO401,CHD413,CHY212,CHY323,DES211,ENG341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHY212,CHY323,DES211,ENG341</t>
   </si>
   <si>
     <t xml:space="preserve">CED3</t>
   </si>
   <si>
-    <t xml:space="preserve">CHD211,CHD471,CHY212,CHY321,CHY323,PHY101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD211,CHY212,CHY323,PHY101</t>
+    <t xml:space="preserve">CHY212,CHY321,CHY323,PHY101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHY212,CHY323,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">CED4</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO202,BIO204,BIO401,CED103,CED305,CHD214,CHD416,CHY213,CHY313,CHY323,CSD207,CSD411,DES131,DES211,ECO367,ECO403,EED201,EED352,EED353,EED364,ENG104,ENG341,HIS101,INT250,MAT101,MAT360,MAT390,MAT440,MED101,MED208,MED303,MED318,MED409,PHY101,PHY563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO202,BIO204,CHD214,CHY213,CHY323,CSD207,DES131,DES211,ECO367,ECO403,EED201,EED352,EED353,ENG341,HIS101,INT250,MAT101,MAT360,MAT390,MAT440,MED101,MED303,PHY101,PHY563</t>
+    <t xml:space="preserve">ART111,BIO204,BIO401,CED103,CED305,CHD211,CHD413,CHY213,CHY313,CHY323,CSD206,CSD411,DES131,DES211,ECO101,ECO102,ECO213,ECO403,ECO422,EED201,EED302,EED352,EED353,EED356,EED364,ENG104,ENG341,ENG441,HIS204,HIS305,INT201,INT250,MAT101,MAT360,MED101,MED105,MED208,MED303,MED318,MED409,PHY101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART111,BIO204,CHD211,CHY213,CHY323,CSD206,DES131,DES211,ECO101,ECO213,ECO403,ECO422,EED201,EED302,EED352,EED353,EED356,ENG341,ENG441,HIS204,HIS305,INT201,INT250,MAT101,MAT360,MED101,MED105,MED303,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">CHD1</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO103,BIO301,BIO401,CED303,CHD211,CHD319,CHD413,CHD471,CHY212,CHY323,CHY343,COM199,CSD411,EED103,EED201,EED202,EED206,EED354,INT254,MED104,MED308,MED410,PHY103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO103,BIO301,CHY212,CHY323,COM199,EED201,EED202,EED206,EED354,INT254,MED104,PHY103</t>
+    <t xml:space="preserve">BIO301,BIO401,CED303,CHY212,CHY323,CHY400,COM199,CSD411,ECO301,ECO403,EED201,EED206,INT254,MED104,MED301,SOC201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIO301,CHY212,CHY323,COM199,ECO301,ECO403,EED201,EED206,INT254,MED104,SOC201</t>
   </si>
   <si>
     <t xml:space="preserve">CHD2</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO202,BIO401,CED305,CHD416,CHY213,CHY323,CHY400,DES211,ECO213,ECO367,ECO403,EED201,EED352,EED353,ENG104,HIS201,MAT101,MAT220,MAT360,MED105,MED208,PHY563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO202,CHY213,CHY323,DES211,ECO213,ECO367,ECO403,EED201,EED352,EED353,HIS201,MAT101,MAT220,MAT360,MED105,PHY563</t>
+    <t xml:space="preserve">BDA483,BIO103,BIO302,BIO401,CED305,CHD413,CHY212,CSD411,DES211,ECO422,EED206,EED306,ENG341,HIS203,MAT160,MAT330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDA483,BIO103,BIO302,CHY212,DES211,ECO422,EED206,EED306,ENG341,HIS203,MAT160,MAT330</t>
   </si>
   <si>
     <t xml:space="preserve">CHD3</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CED307,CHD211,CHD413,CHD471,CHY212,CHY323,DES211,ECO367,EED202,EED206,ENG341,MED208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CED307,CHY212,CHY323,DES211,ECO367,EED202,EED206,ENG341</t>
+    <t xml:space="preserve">BIO401,CHD210,CHY212,CHY323,CHY400,CSD101,DES211,EED201,MAT330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHY212,CHY323,CSD101,DES211,EED201,MAT330</t>
   </si>
   <si>
     <t xml:space="preserve">CHD4</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CED103,CED301,CED302,CED607,CHY313,CHY323,DES211,ECO101,ECO367,EED201,EED364,EED371,ENG241,ENG341,ENG342,HIS318,INT201,MAT103,MAT205,MAT240,MAT440,MED208,MED318,MED409,MED412,PHY101,PHY255,PHY301,SOC306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CED302,CHY323,DES211,ECO101,ECO367,EED201,EED371,ENG241,ENG341,ENG342,HIS318,INT201,MAT240,MAT440,PHY101,PHY301,SOC306</t>
+    <t xml:space="preserve">BDA483,CHD211,CHY212,CHY323,EED206,EED306,EED352,ENG104,HIS203,HIS216,MAT160,MAT330,MED104,MED208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDA483,CHY212,CHY323,EED206,EED306,EED352,HIS203,HIS216,MAT160,MAT330,MED104</t>
   </si>
   <si>
     <t xml:space="preserve">CHY1</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CHD211,CHD471,CHY212,CHY323,CHY400,EED201,ENG104,INT133,MAT399,MED104,MED412,PHY101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD211,EED201,INT133,MED104,PHY101</t>
+    <t xml:space="preserve">BIO401,CHD319,CHY212,CHY323,EED201,EED352,ENG104,MAT184,MED104,MED412,PHY101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHD319,EED201,EED352,MAT184,MED104,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">CHY2</t>
@@ -163,160 +157,154 @@
     <t xml:space="preserve">CHY3</t>
   </si>
   <si>
-    <t xml:space="preserve">CED305,CHD211,CHD471,CHY212,DES211,EED376,HIS305,PHY101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD211,DES211,EED376,HIS305,PHY101</t>
+    <t xml:space="preserve">CED305,CHY212,DES211,ECO422,EED376,PHY101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES211,ECO422,EED376,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">CHY4</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO204,BIO401,CED103,CHD211,CHD471,CHY212,CHY213,CHY313,CHY323,CSD101,CSD339,CSD402,DES211,ECO367,EED201,EED364,EED376,ENG104,ENG341,INT201,MED104,MED208,MED318,MED409,PHY101,PHY105,PHY303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO204,CHD211,CSD101,DES211,ECO367,EED201,EED376,ENG341,INT201,MED104,PHY101,PHY105,PHY303</t>
+    <t xml:space="preserve">BIO104,BIO204,BIO401,CED103,CHD319,CHD413,CHY212,CHY213,CHY313,CHY323,CSD320,CSD339,DES211,ECO403,EED201,EED364,EED376,ENG104,ENG341,INT201,MAT184,MAT390,MAT399,MAT440,MED104,MED208,MED318,MED409,PHY101,PHY105,PHY303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIO104,BIO204,CHD319,DES211,ECO403,EED201,EED376,ENG341,INT201,MAT184,MAT390,MAT440,MED104,PHY101,PHY105,PHY303</t>
   </si>
   <si>
     <t xml:space="preserve">CSE11</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CED305,CHD211,CHD317,CHD471,CHY212,CHY343,CHY400,CSD206,CSD207,CSD429,DES211,ECO213,ECO367,EED201,EED352,EED353,EED364,EED371,EED375,ENG104,ENG340,ENG341,HIS201,INT201,INT250,MAT101,MAT205,MAT220,MED101,MED104,MED105,MED303,MED412,PHY101,PHY305,PHY413,SOC301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD211,CHY212,DES211,ECO213,ECO367,EED201,EED352,EED353,EED371,ENG340,ENG341,HIS201,INT201,INT250,MAT101,MAT220,MED101,MED104,MED105,MED303,PHY101,PHY305,PHY413,SOC301</t>
+    <t xml:space="preserve">BIO101,BIO401,CED305,CHD413,CHY212,CHY323,CHY343,CHY400,CSD311,CSD337,DES211,ECO213,ECO403,ECO422,EED201,EED206,EED352,EED353,EED354,EED364,EED375,ENG104,ENG341,INT201,MAT101,MAT220,MED101,MED104,MED105,PHY305,PHY417,PHY563,SOC301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIO101,CHY212,CHY323,DES211,ECO213,ECO403,ECO422,EED201,EED206,EED352,EED353,EED354,ENG341,INT201,MAT101,MAT220,MED101,MED104,MED105,PHY305,PHY417,PHY563,SOC301</t>
   </si>
   <si>
     <t xml:space="preserve">CSE12</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CED103,CED202,CED302,CED303,CHD413,CHY313,CHY323,CHY343,CHY400,COM196,CSD205,CSD320,CSD402,CSD429,DES211,ECO213,ECO402,EED103,EED201,EED202,EED352,EED354,EED364,EED371,EED375,ENG104,ENG340,INT201,INT250,INT254,MAT184,MAT205,MAT390,MAT440,MED101,MED104,MED201,MED208,MED303,MED308,MED318,MED409,MED410,MED412,PHY101,PHY201,PHY207,PHY305,PHY307,PHY413,PHY417,SOC101,SOC204,SOC301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CED202,CED302,CHY323,COM196,DES211,ECO213,ECO402,EED201,EED202,EED352,EED354,EED371,ENG340,INT201,INT250,INT254,MAT184,MAT390,MAT440,MED101,MED104,MED303,PHY101,PHY201,PHY207,PHY305,PHY307,PHY413,PHY417,SOC101,SOC204,SOC301</t>
+    <t xml:space="preserve">BIO101,BIO401,CED202,CED303,CED305,CHD317,CHD413,CHY212,CHY323,CHY343,CHY400,COM196,CSD205,CSD311,DES211,ECO213,ECO301,ECO403,ECO422,EED103,EED201,EED202,EED206,EED352,EED353,EED354,EED375,ENG104,ENG341,HIS305,INT201,MAT101,MAT184,MAT220,MAT360,MED101,MED104,MED105,MED201,MED303,MED308,MED410,MED412,PHY101,PHY413,PHY563,SOC301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIO101,CED202,CHY212,CHY323,COM196,DES211,ECO213,ECO301,ECO403,ECO422,EED201,EED202,EED206,EED352,EED353,EED354,ENG341,HIS305,INT201,MAT101,MAT184,MAT220,MAT360,MED101,MED104,MED105,MED303,PHY101,PHY413,PHY563,SOC301</t>
   </si>
   <si>
     <t xml:space="preserve">CSE13</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO301,BIO401,CED201,CED305,CHD210,CHD211,CHD413,CHD416,CHD471,CHY212,CHY323,CHY343,CSD206,CSD207,CSD304,DES211,ECO213,ECO367,EED103,EED201,EED202,EED206,EED352,EED353,ENG104,ENG340,ENG341,ENG441,HIS314,INT201,INT250,MAT101,MED101,MED104,MED105,MED211,PHY201,SOC301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO301,CED201,CHD210,CHD211,CHY212,CHY323,DES211,ECO213,ECO367,EED201,EED202,EED206,EED352,EED353,ENG340,ENG341,ENG441,HIS314,INT201,INT250,MAT101,MED101,MED104,MED105,MED211,PHY201,SOC301</t>
+    <t xml:space="preserve">BIO202,BIO401,CED431,CHD211,CHD214,CHD372,CHD413,CHY212,CHY323,CHY400,CSD337,CSD429,DES211,ECO221,ECO402,ECO403,EED201,EED206,EED375,EED376,ENG104,ENG341,HIS314,INT250,MAT184,MAT220,MAT442,MED101,MED104,MED208,MED303,MED309,MED412,PHY101,PHY305,PHY563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIO202,CHD211,CHD214,CHD372,CHY212,CHY323,DES211,ECO221,ECO402,ECO403,EED201,EED206,EED376,ENG341,HIS314,INT250,MAT184,MAT220,MAT442,MED101,MED104,MED303,MED309,PHY101,PHY305,PHY563</t>
   </si>
   <si>
     <t xml:space="preserve">CSE14</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO301,BIO401,CED201,CED305,CHD211,CHD413,CHD471,CHY212,CHY323,CHY343,CHY400,CSD206,CSD207,DES211,ECO213,ECO367,EED103,EED201,EED202,EED353,EED376,ENG104,ENG340,ENG341,ENG441,HIS201,INT201,MAT101,MAT184,MAT220,MED101,MED104,MED105,MED211,MED303,MED412,PHY101,PHY201,SOC204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO301,CED201,CHD211,CHY212,CHY323,DES211,ECO213,ECO367,EED201,EED202,EED353,EED376,ENG340,ENG341,ENG441,HIS201,INT201,MAT101,MAT184,MAT220,MED101,MED104,MED105,MED211,MED303,PHY101,PHY201,SOC204</t>
+    <t xml:space="preserve">BIO401,CED201,CED305,CED431,CHD211,CHD214,CHD372,CHD413,CHY212,CHY323,CHY400,CSD206,CSD311,CSD320,CSD402,CSD429,DES211,ECO213,ECO221,ECO402,ECO403,ECO422,EED201,EED206,EED304,EED353,EED364,EED375,ENG104,ENG341,ENG441,INT201,INT250,MAT101,MAT220,MAT390,MAT440,MAT442,MED101,MED104,MED105,MED208,MED211,MED303,MED309,MED412,PHY101,PHY563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CED201,CHD211,CHD214,CHD372,CHY212,CHY323,DES211,ECO213,ECO221,ECO402,ECO403,ECO422,EED201,EED206,EED304,EED353,ENG341,ENG441,INT201,INT250,MAT101,MAT220,MAT390,MAT440,MAT442,MED101,MED104,MED105,MED211,MED303,MED309,PHY101,PHY563</t>
   </si>
   <si>
     <t xml:space="preserve">CSE21</t>
   </si>
   <si>
-    <t xml:space="preserve">CHD416,DES211,MED208,MED303,PHY101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DES211,MED303,PHY101</t>
+    <t xml:space="preserve">BDA496,BIO401,CED301,CED607,CHD413,CHD416,DES211,ECO101,EED201,ENG241,ENG341,MAT103,MAT399,PHY255,SOC306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDA496,DES211,ECO101,EED201,ENG241,ENG341,SOC306</t>
   </si>
   <si>
     <t xml:space="preserve">CSE22</t>
   </si>
   <si>
-    <t xml:space="preserve">DES211,EED376,MED104,MED309,MED412,PHY101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DES211,EED376,MED104,MED309,PHY101</t>
+    <t xml:space="preserve">BIO401,CED431,CHD413,CHY400,DES211,EED201,ENG241,MED104,MED309,MED412,PHY101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES211,EED201,ENG241,MED104,MED309,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">CSE31</t>
   </si>
   <si>
-    <t xml:space="preserve">CHD211,CHD471,CHY212,CHY400,MED208,PHY101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD211,CHY212,PHY101</t>
+    <t xml:space="preserve">BIO202,CHD211,CHY212,CHY400,MED412,PHY101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIO202,CHD211,CHY212,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">CSE32</t>
   </si>
   <si>
-    <t xml:space="preserve">CHD211,CHD471,CHY212,MED208,PHY101</t>
+    <t xml:space="preserve">BIO202,CHD211,CHY212,MED412,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">CSE4</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CHD211,CHD471,CHY212,CHY400,DES211,ECO367,EED201,ENG341,PHY101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD211,CHY212,DES211,ECO367,EED201,ENG341,PHY101</t>
+    <t xml:space="preserve">CHD211,CHY212,CHY400,HIS305,MED101,MED208,MED303,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">ECE11</t>
   </si>
   <si>
-    <t xml:space="preserve">BDA483,BIO401,CED431,CHD211,CHD471,CHY212,CHY400,DES211,ECO213,ECO367,ECO422,EED201,EED206,EED375,ENG104,ENG341,HIS102,HIS305,INT201,MAT399,MAT442,MED101,MED104,MED318,MED409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDA483,CHD211,CHY212,DES211,ECO213,ECO367,ECO422,ENG341,HIS102,HIS305,INT201,MAT442,MED101,MED104</t>
+    <t xml:space="preserve">BIO401,CED431,CHD413,CHY212,CHY213,CHY400,DES211,ECO403,EED201,EED206,EED375,ENG104,ENG341,HIS102,INT201,MAT442,MED101,MED104,MED318,MED409,PHY563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHY212,CHY213,DES211,ECO403,ENG341,HIS102,INT201,MAT442,MED101,MED104,PHY563</t>
   </si>
   <si>
     <t xml:space="preserve">ECE12</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CED201,CED305,CED431,CHD210,CHD317,CHD416,CHY212,CHY400,CSD206,DES211,ECO213,ECO367,ECO422,EED201,EED353,EED375,ENG104,ENG341,ENG441,HIS201,INT133,INT201,MAT101,MAT220,MAT399,MAT442,MED101,MED104,MED105,MED211,MED309,SOC201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CED201,CHD210,CHY212,CSD206,DES211,ECO213,ECO367,ECO422,ENG341,ENG441,HIS201,INT133,INT201,MAT101,MAT220,MAT442,MED101,MED104,MED105,MED211,MED309,SOC201</t>
+    <t xml:space="preserve">BIO401,CED201,CED305,CED431,CHD214,CHD413,CHY212,CHY213,CHY400,CSD206,CSD311,CSD429,DES211,ECO101,ECO213,ECO402,ECO403,ECO422,EED201,EED353,EED375,ENG104,ENG341,ENG441,HIS317,INT201,MAT101,MAT220,MAT442,MED101,MED104,MED105,MED211,MED309,PHY563,SOC201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CED201,CHD214,CHY212,CHY213,CSD206,CSD311,DES211,ECO101,ECO213,ECO402,ECO403,ECO422,ENG341,ENG441,HIS317,INT201,MAT101,MAT220,MAT442,MED101,MED104,MED105,MED211,MED309,PHY563,SOC201</t>
   </si>
   <si>
     <t xml:space="preserve">ECE13</t>
   </si>
   <si>
-    <t xml:space="preserve">BDA483,BIO103,BIO201,BIO202,BIO302,CED305,CHD211,CHD319,CHD471,CHY212,CSD411,DES211,EED206,EED306,HIS203,HIS305,MED104,MED314,MED318,MED409,PHY203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDA483,BIO103,BIO201,BIO202,BIO302,CHD211,CHD319,CHY212,DES211,HIS203,HIS305,MED104,MED314,PHY203</t>
+    <t xml:space="preserve">BIO103,BIO201,CED305,CHY212,CSD411,DES211,ECO422,EED206,MED104,MED318,MED409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIO103,BIO201,CHY212,DES211,ECO422,MED104</t>
   </si>
   <si>
     <t xml:space="preserve">ECE21</t>
   </si>
   <si>
-    <t xml:space="preserve">CHD416,CHY400,COM192,CSD101,ECO415,EED375,MED101,MED104,MED208,MED303,MED412,PHY101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COM192,CSD101,ECO415,MED101,MED104,MED303,PHY101</t>
+    <t xml:space="preserve">CHD210,CHD211,CHY400,COM192,CSD101,ECO415,EED375,MAT399,MED101,MED104,MED208,MED303,MED412,PHY101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHD210,CHD211,COM192,CSD101,ECO415,MED101,MED104,MED303,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">ECE22</t>
   </si>
   <si>
-    <t xml:space="preserve">CHD214,CHD372,CHD416,CHY400,ENG240,MED208,MED301,PHY101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD214,CHD372,ENG240,PHY101</t>
+    <t xml:space="preserve">CED301,CED607,CHD210,CHD211,CHD416,CHY400,COM197,ECO101,ENG240,MAT103,MAT422,MED208,MED301,MED314,PHY101,PHY255,SOC306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHD210,CHD211,COM197,ECO101,ENG240,MAT422,MED314,PHY101,SOC306</t>
   </si>
   <si>
     <t xml:space="preserve">ECE31</t>
   </si>
   <si>
-    <t xml:space="preserve">CED103,CED206,CED301,CED302,CED607,CHD471,CHY212,CHY313,ECO101,MAT103,MED318,MED409,PHY255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CED206,CED302,CHY212,ECO101</t>
+    <t xml:space="preserve">BIO202,CED103,CED302,CHD211,CHY212,CHY313,CHY400,CSD207,MED318,MED409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIO202,CED302,CHD211,CHY212,CSD207</t>
   </si>
   <si>
     <t xml:space="preserve">ECE32</t>
   </si>
   <si>
-    <t xml:space="preserve">CHD471,CHY212,CHY323,MED208,PHY101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHY212,CHY323,PHY101</t>
+    <t xml:space="preserve">CHY212,CHY323,CHY400,MED208,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">ECE41</t>
@@ -328,340 +316,343 @@
     <t xml:space="preserve">ECO1</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CED202,CED303,CHD413,CHD416,CHY323,ECO301,EED103,EED201,EED202,EED352,EED376,ENG104,HIS314,INT254,MAT184,MED104,MED201,MED303,MED412,PHY101,PHY201,PHY303,PHY417,SOC204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CED202,CHY323,EED201,EED202,EED352,EED376,HIS314,INT254,MAT184,MED104,MED303,PHY101,PHY201,PHY303,PHY417,SOC204</t>
+    <t xml:space="preserve">ART111,BIO401,CED202,CED303,CHD317,CHY323,CHY351,CSD301,CSD337,CSD339,ECO301,EED103,EED201,EED202,EED352,EED356,EED376,HIS305,HIS314,INT250,INT254,MAT184,MED201,MED303,MED412,PHY101,PHY201,PHY303,SOC204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART111,CED202,CHY323,CHY351,CSD301,EED201,EED202,EED352,EED356,EED376,HIS305,HIS314,INT250,INT254,MAT184,MED303,PHY101,PHY201,PHY303,SOC204</t>
   </si>
   <si>
     <t xml:space="preserve">ECO2</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO102,BIO303,BIO401,CED103,CED206,CED301,CED302,CED305,CED307,CED431,CED607,CHD210,CHD211,CHD416,CHD471,CHY111,CHY212,CHY213,CHY311,CHY313,CHY323,CHY400,CSD207,CSD429,DES211,ECO101,ECO213,ECO367,ECO422,EED201,EED206,EED352,EED353,EED364,EED375,ENG104,ENG241,ENG341,HIS102,HIS201,HIS318,INT105,INT133,INT203,INT250,MAT020,MAT101,MAT103,MAT150,MAT220,MAT360,MAT390,MAT399,MAT440,MAT442,MED101,MED104,MED208,MED301,MED303,MED309,MED318,MED409,MED412,PHY101,PHY255,PHY301,PHY413,SOC301,SOC306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO102,BIO303,CED206,CED302,CED307,CHD210,CHD211,CHY111,CHY212,CHY213,CHY311,CHY323,CSD207,DES211,EED201,EED206,EED352,EED353,ENG241,ENG341,HIS102,HIS201,HIS318,INT105,INT133,INT203,INT250,MAT101,MAT220,MAT360,MAT390,MAT440,MAT442,MED101,MED104,MED303,MED309,PHY101,PHY301,PHY413,SOC301,SOC306</t>
+    <t xml:space="preserve">BDA496,BIO102,BIO104,BIO204,BIO303,BIO401,CED103,CED201,CED206,CED301,CED302,CED305,CED431,CED607,CHD210,CHD211,CHD214,CHD315,CHD319,CHD413,CHD416,CHY111,CHY213,CHY311,CHY313,CHY323,CHY400,CSD206,CSD311,CSD339,CSD429,DES211,ECO101,ECO213,ECO402,ECO403,ECO422,EED201,EED352,EED353,EED364,EED375,ENG104,ENG141,ENG241,ENG242,ENG341,ENG342,ENG441,HIS102,HIS204,HIS305,HIS318,INT105,INT133,INT201,INT203,INT250,MAT101,MAT103,MAT150,MAT220,MAT240,MAT360,MAT399,MAT442,MED101,MED104,MED105,MED208,MED211,MED301,MED303,MED309,MED318,MED409,MED412,PHY101,PHY105,PHY255,PHY301,PHY303,PHY413,PHY563,SOC301,SOC306,SOC317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDA496,BIO102,BIO104,BIO204,BIO303,CED201,CED206,CED302,CHD210,CHD211,CHD214,CHD315,CHD319,CHY111,CHY213,CHY311,CHY323,CSD206,CSD311,DES211,EED201,EED352,EED353,ENG141,ENG241,ENG242,ENG341,ENG342,ENG441,HIS102,HIS204,HIS305,HIS318,INT105,INT133,INT201,INT203,INT250,MAT101,MAT220,MAT240,MAT360,MAT442,MED101,MED104,MED105,MED211,MED303,MED309,PHY101,PHY105,PHY301,PHY303,PHY413,PHY563,SOC301,SOC306,SOC317</t>
   </si>
   <si>
     <t xml:space="preserve">ECO3</t>
   </si>
   <si>
-    <t xml:space="preserve">CHD211,CHD471,CHY212,CHY323,MED208,MED412,PHY101</t>
+    <t xml:space="preserve">ART111,CED103,CHD471,CHY212,CHY313,CHY323,CHY400,CSD207,EED302,EED356,EED371,HIS305,MAT205,MAT390,MAT440,MED101,MED104,MED303,MED308,MED318,MED409,MED410,MED412,PHY101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART111,CHY212,CHY323,CSD207,EED302,EED356,EED371,HIS305,MAT390,MAT440,MED101,MED104,MED303,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">ECO4</t>
   </si>
   <si>
-    <t xml:space="preserve">CED301,CED307,CED607,CHD211,CHD471,CHY212,CHY323,ECO101,ENG342,HIS318,MAT103,MED208,MED412,PHY101,PHY255,SOC306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CED307,CHD211,CHY212,CHY323,ENG342,HIS318,PHY101,SOC306</t>
+    <t xml:space="preserve">CED103,CED301,CED302,CED307,CED607,CHD416,CHD471,CHY212,CHY313,CHY323,CHY400,CSD207,ECO101,EED371,ENG440,HIS305,HIS318,MAT100,MAT103,MAT205,MAT240,MAT390,MAT440,MED101,MED104,MED301,MED303,MED308,MED318,MED409,MED410,MED412,PHY101,PHY255,SOC306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CED302,CED307,CHY212,CHY323,CSD207,EED371,ENG440,HIS305,HIS318,MAT240,MAT390,MAT440,MED101,MED104,MED303,PHY101,SOC306</t>
   </si>
   <si>
     <t xml:space="preserve">EEE11</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO201,BIO401,CED201,CED305,CHD313,CSD411,DES211,ECO213,ECO367,EED201,EED353,EED364,EED371,ENG441,INT201,MAT101,MAT205,MED104,MED105,MED211,PHY563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO201,CED201,DES211,ECO213,ECO367,ENG441,INT201,MAT101,MED104,MED105,MED211,PHY563</t>
+    <t xml:space="preserve">ART111,BIO103,BIO201,BIO401,CED201,CED305,CHD313,CHD413,CHD471,CHY213,CSD206,CSD411,DES211,ECO102,ECO213,ECO422,EED201,EED302,EED353,EED356,EED364,EED371,ENG441,INT201,MAT101,MAT205,MAT360,MED104,MED105,MED211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART111,BIO103,BIO201,CED201,CHY213,CSD206,DES211,ECO213,ECO422,ENG441,INT201,MAT101,MAT360,MED104,MED105,MED211</t>
   </si>
   <si>
     <t xml:space="preserve">EEE12</t>
   </si>
   <si>
-    <t xml:space="preserve">BDA483,BIO401,CED305,CHD416,CSD206,DES211,ECO213,ECO367,EED201,EED306,EED353,ENG104,ENG341,INT201,MAT101,MED105,MED314,MED318,MED409,PHY203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDA483,CSD206,DES211,ECO213,ECO367,ENG341,INT201,MAT101,MED105,MED314,PHY203</t>
+    <t xml:space="preserve">BIO401,CED305,CHD413,CHY213,DES211,ECO101,ECO213,ECO403,ECO422,EED201,EED353,ENG104,ENG341,INT201,MAT101,MAT360,MED105,MED318,MED409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHY213,DES211,ECO101,ECO213,ECO403,ECO422,ENG341,INT201,MAT101,MAT360,MED105</t>
   </si>
   <si>
     <t xml:space="preserve">EEE2</t>
   </si>
   <si>
-    <t xml:space="preserve">CHY400,MED208,PHY101</t>
+    <t xml:space="preserve">CHD211,CHY400,MED208,PHY101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHD211,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">EEE3</t>
   </si>
   <si>
-    <t xml:space="preserve">CED206,CED301,CED607,CHD211,CHD471,CHY212,DES211,ECO101,HIS318,MAT103,PHY255,PHY301,SOC306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CED206,CHD211,CHY212,DES211,ECO101,HIS318,PHY301,SOC306</t>
+    <t xml:space="preserve">CED206,CED301,CED607,CHD416,CHY212,DES211,ECO101,ECO213,ECO403,MAT100,MAT103,PHY255,PHY301,PHY305,SOC306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CED206,CHY212,DES211,ECO101,ECO213,ECO403,PHY301,PHY305,SOC306</t>
   </si>
   <si>
     <t xml:space="preserve">EEE4</t>
   </si>
   <si>
-    <t xml:space="preserve">ART110,BIO103,BIO401,CHD214,CHD413,CHY212,CHY323,ECO415,EED202,EED361,HIS216,MAT184,MED203,MED208,PHY101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ART110,BIO103,CHD214,CHY212,CHY323,ECO415,HIS216,MAT184,PHY101</t>
+    <t xml:space="preserve">ART110,BIO401,CHD211,CHD317,CHY212,CHY323,ECO415,EED202,EED361,HIS305,MAT020,MAT184,MED203,MED208,PHY101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART110,CHD211,CHY212,CHY323,ECO415,HIS305,MAT184,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">ENG1</t>
   </si>
   <si>
+    <t xml:space="preserve">CHY212,CHY323,EED206,HIS305,PHY101</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENG2</t>
   </si>
   <si>
-    <t xml:space="preserve">CED431,CHD210,CHD211,CHD416,CHD471,CHY212,CHY323,CHY400,COM196,ECO422,EED206,EED352,EED375,ENG104,INT133,INT203,MAT150,MAT399,MAT442,MED101,MED104,MED301,MED303,MED309,MED412,PHY101,SOC301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD210,CHD211,CHY212,CHY323,COM196,ECO422,EED206,EED352,INT133,INT203,MAT442,MED101,MED104,MED303,MED309,PHY101,SOC301</t>
+    <t xml:space="preserve">CED431,CHD211,CHD372,CHY212,CHY323,CHY400,CSD320,CSD429,ECO402,EED206,EED304,EED375,EED376,ENG104,INT133,INT203,MAT184,MAT390,MAT440,MAT442,MED101,MED104,MED208,MED301,MED309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHD211,CHD372,CHY212,CHY323,ECO402,EED206,EED304,EED376,INT133,INT203,MAT184,MAT390,MAT440,MAT442,MED101,MED104,MED309</t>
   </si>
   <si>
     <t xml:space="preserve">ENG3</t>
   </si>
   <si>
-    <t xml:space="preserve">CHD471,CHY212,CHY323,MED104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHY212,CHY323,MED104</t>
+    <t xml:space="preserve">CHY212,CHY323,MAT440,MED104</t>
   </si>
   <si>
     <t xml:space="preserve">ENG4</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO104,BIO401,CED202,CED307,CED431,CHD471,CHY212,CHY323,CHY400,COM192,COM196,DES211,ECO367,ECO422,EED201,EED206,EED306,EED352,EED375,ENG104,HIS305,MAT399,MAT442,MED101,MED104,MED303,MED412,PHY101,PHY305,SOC201,SOC301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO104,CED202,CED307,CHY212,CHY323,COM192,COM196,DES211,ECO367,ECO422,EED201,EED206,EED306,EED352,HIS305,MAT442,MED101,MED104,MED303,PHY101,PHY305,SOC201,SOC301</t>
+    <t xml:space="preserve">BIO202,BIO401,CED202,CED307,CED431,CHD211,CHD413,CHY212,CHY323,CHY400,COM192,COM196,CSD101,CSD337,DES211,ECO221,EED201,EED206,EED306,EED352,EED375,ENG104,MAT184,MAT442,MED101,MED104,MED303,MED412,PHY101,PHY305,SOC201,SOC301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIO202,CED202,CED307,CHD211,CHY212,CHY323,COM192,COM196,CSD101,DES211,ECO221,EED201,EED206,EED306,EED352,MAT184,MAT442,MED101,MED104,MED303,PHY101,PHY305,SOC201,SOC301</t>
   </si>
   <si>
     <t xml:space="preserve">HIS1</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CED305,CHD416,CHY323,DES211,ECO367,EED201,EED353,ENG241,INT105,MAT101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHY323,DES211,ECO367,EED201,EED353,ENG241,INT105,MAT101</t>
+    <t xml:space="preserve">BIO401,CHD413,CHY212,CHY323,DES211,EED201,EED206,ENG241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHY212,CHY323,DES211,EED201,EED206,ENG241</t>
   </si>
   <si>
     <t xml:space="preserve">HIS2</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CHD210,CHD211,CHD416,CHD471,CHY212,CHY323,CSD337,ECO221,EED201,EED206,EED352,ENG104,MED104,MED303,MED309,MED412,PHY101,SOC301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD210,CHD211,CHY212,CHY323,ECO221,EED201,EED206,EED352,MED104,MED303,MED309,PHY101,SOC301</t>
+    <t xml:space="preserve">BIO303,BIO401,CED206,CED301,CED431,CED607,CHD211,CHD372,CHD416,CHY212,CHY311,CHY323,CHY400,CSD320,CSD429,ECO101,ECO402,EED201,EED206,EED304,EED375,EED376,ENG104,INT133,MAT100,MAT103,MAT184,MAT390,MAT440,MAT442,MED101,MED104,MED208,MED301,MED309,PHY255,SOC306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIO303,CED206,CHD211,CHD372,CHY212,CHY311,CHY323,ECO101,ECO402,EED201,EED206,EED304,EED376,INT133,MAT184,MAT390,MAT440,MAT442,MED101,MED104,MED309,SOC306</t>
   </si>
   <si>
     <t xml:space="preserve">HIS3</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CHY323,DES211,ECO213,ECO367,EED201,EED364,INT201,MED104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHY323,DES211,ECO213,ECO367,EED201,INT201,MED104</t>
+    <t xml:space="preserve">BIO401,CHD413,CHY323,CHY400,DES211,EED201,EED364,ENG341,MAT390,MAT440,MED104,MED208,MED301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHY323,DES211,EED201,ENG341,MAT390,MAT440,MED104</t>
   </si>
   <si>
     <t xml:space="preserve">HIS4</t>
   </si>
   <si>
-    <t xml:space="preserve">ART111,BIO204,BIO304,BIO401,CED201,CED305,CHY213,CHY323,CSD101,CSD301,CSD337,CSD339,DES211,ECO213,ECO367,ECO403,EED201,EED302,EED353,EED356,EED364,ENG242,INT201,MAT360,MED104,MED105,MED211,PHY303,PHY563,SOC317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ART111,BIO204,BIO304,CED201,CHY213,CHY323,CSD101,CSD301,DES211,ECO213,ECO367,ECO403,EED201,EED302,EED353,EED356,ENG242,INT201,MAT360,MED104,MED105,MED211,PHY303,PHY563,SOC317</t>
+    <t xml:space="preserve">ART110,BIO304,BIO401,CED305,CHD210,CHD413,CHY323,CHY351,CHY400,CSD301,CSD411,DES211,ECO422,EED201,EED305,EED364,EED373,ENG341,MAT390,MAT399,MAT440,MED104,MED203,MED208,MED301,PHY101,PHY105,SOC317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART110,BIO304,CHD210,CHY323,CHY351,CSD301,DES211,ECO422,EED201,EED305,EED373,ENG341,MAT390,MAT440,MED104,PHY101,PHY105,SOC317</t>
   </si>
   <si>
     <t xml:space="preserve">INT1</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO204,CHD471,CHY212,CHY323,EED206,ENG340,HIS305,MAT100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO204,CHY212,CHY323,EED206,ENG340,HIS305</t>
+    <t xml:space="preserve">BIO204,CHY212,CHY323,ENG104,ENG340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIO204,CHY212,CHY323,ENG340</t>
   </si>
   <si>
     <t xml:space="preserve">INT2</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO202,CHY212,MED208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO202,CHY212</t>
+    <t xml:space="preserve">CHY212,MED208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHY212</t>
   </si>
   <si>
     <t xml:space="preserve">MAT1</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CED202,CHD211,CHD471,CHY212,CHY323,CSD402,EED201,EED376,ENG104,MED104,MED208,PHY101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CED202,CHD211,CHY212,CHY323,EED201,EED376,MED104,PHY101</t>
+    <t xml:space="preserve">BIO201,BIO202,BIO301,BIO401,CED103,CED202,CED303,CHD211,CHD317,CHD471,CHY111,CHY313,CHY323,CHY343,CSD205,CSD207,CSD320,CSD337,EED103,EED201,EED202,EED304,EED352,EED354,EED371,EED376,ENG104,HIS305,HIS314,INT250,MAT184,MAT205,MAT390,MAT440,MED101,MED104,MED201,MED208,MED303,MED308,MED318,MED409,MED410,MED412,PHY101,PHY201,PHY207,PHY305,PHY417,SOC101,SOC204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIO201,BIO202,BIO301,CED202,CHD211,CHY111,CHY323,CSD205,CSD207,EED201,EED202,EED304,EED352,EED354,EED371,EED376,HIS305,HIS314,INT250,MED101,MED104,MED303,PHY101,PHY201,PHY207,PHY305,PHY417,SOC101,SOC204</t>
   </si>
   <si>
     <t xml:space="preserve">MAT2</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CHD211,CHD471,CHY212,DES211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD211,CHY212,DES211</t>
+    <t xml:space="preserve">BIO401,CHY212,DES211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHY212,DES211</t>
   </si>
   <si>
     <t xml:space="preserve">MAT3</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CHD211,CHD416,CHD471,CHY212,EED201,PHY101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD211,CHY212,EED201,PHY101</t>
+    <t xml:space="preserve">BIO101,BIO401,CED431,CHY400,CSD337,CSD429,ECO221,ECO402,EED201,EED352,EED375,ENG104,HIS305,HIS314,INT250,MAT442,MED101,MED104,MED303,MED309,MED412,PHY101,SOC301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIO101,ECO221,ECO402,EED201,EED352,HIS305,HIS314,INT250,MED101,MED104,MED303,MED309,PHY101,SOC301</t>
   </si>
   <si>
     <t xml:space="preserve">MAT4</t>
   </si>
   <si>
-    <t xml:space="preserve">BDA483,BIO204,BIO401,CED103,CED302,CED305,CED307,CED431,CHD210,CHD211,CHD416,CHD471,CHY111,CHY211,CHY212,CHY213,CHY313,CHY323,CHY400,CSD207,CSD337,CSD429,DES131,DES211,ECO102,ECO213,ECO367,ECO415,ECO422,EED201,EED206,EED306,EED352,EED353,EED364,EED375,ENG104,ENG341,HIS102,HIS201,HIS305,HIS317,INT133,INT203,INT250,MAT101,MAT330,MAT360,MAT390,MAT399,MAT440,MAT442,MED101,MED104,MED208,MED303,MED309,MED314,MED318,MED409,MED412,PHY101,PHY413,SOC201,SOC301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDA483,BIO204,CED302,CED307,CHD210,CHD211,CHY111,CHY211,CHY212,CHY213,CHY323,CSD207,DES131,DES211,ECO213,ECO367,ECO415,ECO422,EED201,EED206,EED306,EED352,EED353,ENG341,HIS102,HIS201,HIS305,HIS317,INT133,INT203,INT250,MED101,MED104,MED303,MED309,MED314,PHY101,PHY413,SOC201,SOC301</t>
+    <t xml:space="preserve">BDA483,BIO104,BIO204,BIO401,CED103,CED302,CED305,CED307,CED431,CHD210,CHD211,CHD214,CHD319,CHD413,CHY111,CHY211,CHY213,CHY313,CHY323,CHY400,COM192,CSD101,CSD304,CSD339,CSD429,DES131,DES211,ECO213,ECO402,ECO403,ECO415,ECO422,EED201,EED306,EED352,EED353,EED364,EED375,ENG104,ENG341,HIS102,HIS204,HIS216,HIS305,HIS317,INT201,INT203,INT250,MAT101,MAT150,MAT330,MAT360,MAT399,MAT442,MED101,MED104,MED208,MED303,MED309,MED314,MED318,MED409,MED412,PHY101,PHY105,PHY303,PHY413,PHY563,SOC201,SOC301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDA483,BIO104,BIO204,CED302,CED307,CHD210,CHD211,CHD214,CHD319,CHY111,CHY211,CHY213,CHY323,COM192,CSD101,CSD304,DES131,DES211,ECO213,ECO402,ECO403,ECO415,ECO422,EED201,EED306,EED352,EED353,ENG341,HIS102,HIS204,HIS216,HIS305,HIS317,INT201,INT203,INT250,MED101,MED104,MED303,MED309,MED314,PHY101,PHY105,PHY303,PHY413,PHY563,SOC201,SOC301</t>
   </si>
   <si>
     <t xml:space="preserve">MED11</t>
   </si>
   <si>
-    <t xml:space="preserve">CHD211,CHD471,CHY212,CHY343,CSD101,HIS305,MED101,MED104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD211,CHY212,CSD101,HIS305</t>
+    <t xml:space="preserve">CHY212,CHY343,MED101,MED104,SOC101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHY212,SOC101</t>
   </si>
   <si>
     <t xml:space="preserve">MED12</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO301,BIO401,CED303,CHD211,CHD471,CHY212,CSD101,CSD205,DES211,EED201,EED376,HIS305,INT254,MED104,MED314,MED412,PHY101,PHY203,PHY305,PHY417,SOC204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO301,CHD211,CHY212,CSD101,CSD205,DES211,EED201,EED376,HIS305,INT254,PHY101,PHY203,PHY305,PHY417,SOC204</t>
+    <t xml:space="preserve">BIO301,BIO401,CED303,CHY212,CSD320,CSD337,DES211,ECO301,EED201,EED376,MAT184,MED104,MED314,MED412,PHY101,PHY203,PHY305,PHY417,SOC204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIO301,CHY212,DES211,ECO301,EED201,EED376,MAT184,PHY101,PHY203,PHY305,PHY417,SOC204</t>
   </si>
   <si>
     <t xml:space="preserve">MED2</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CHD471,CHY212,DES211,ECO367,HIS305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHY212,DES211,ECO367,HIS305</t>
+    <t xml:space="preserve">BIO401,CHD413,CHY212,DES211</t>
   </si>
   <si>
     <t xml:space="preserve">MED31</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO204,CED301,CED305,CED607,CHD211,CHD471,CHY212,CHY323,DES211,ECO101,ECO367,ECO403,EED206,EED353,ENG241,ENG341,HIS318,INT105,MAT020,MAT101,MAT103,MAT360,MED105,PHY255,PHY301,PHY563,SOC306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO204,CHD211,CHY212,CHY323,DES211,ECO101,ECO367,ECO403,EED206,EED353,ENG241,ENG341,HIS318,INT105,MAT101,MAT360,PHY301,PHY563,SOC306</t>
+    <t xml:space="preserve">ART111,BDA496,BIO102,BIO204,CED201,CED301,CED305,CED607,CHD315,CHD413,CHD416,CHY323,CSD206,CSD339,DES211,ECO101,ECO102,ECO213,ECO403,ECO422,EED302,EED353,EED356,ENG141,ENG241,ENG242,ENG341,ENG342,HIS201,HIS204,INT105,INT201,MAT101,MAT103,MAT399,MED104,MED105,MED211,PHY105,PHY255,PHY301,PHY303,SOC317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART111,BDA496,BIO102,BIO204,CED201,CHD315,CHY323,CSD206,DES211,ECO101,ECO213,ECO403,ECO422,EED302,EED353,EED356,ENG141,ENG241,ENG242,ENG341,ENG342,HIS201,HIS204,INT105,INT201,MAT101,PHY105,PHY301,PHY303,SOC317</t>
   </si>
   <si>
     <t xml:space="preserve">MED32</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO202,BIO204,BIO401,CED103,CED305,CHD471,CHY212,CHY213,CHY313,CHY323,CSD207,DES211,ECO367,ECO403,EED201,EED353,EED364,MAT101,MAT360,MAT390,MAT440,MED101,MED105,MED208,MED318,MED409,PHY563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO202,BIO204,CHY212,CHY213,CHY323,CSD207,DES211,ECO367,ECO403,EED201,EED353,MAT101,MAT360,MAT390,MAT440,PHY563</t>
+    <t xml:space="preserve">ART111,BIO204,BIO401,CED103,CED201,CED305,CHD413,CHY213,CHY313,CHY323,CSD206,CSD339,DES211,ECO102,ECO213,ECO422,EED201,EED302,EED353,EED356,EED364,ENG242,ENG441,HIS201,HIS204,INT201,MAT101,MAT360,MAT399,MED101,MED104,MED105,MED208,MED211,MED318,MED409,PHY303,SOC317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART111,BIO204,CED201,CHY213,CHY323,CSD206,DES211,ECO213,ECO422,EED201,EED302,EED353,EED356,ENG242,ENG441,HIS201,HIS204,INT201,MAT101,MAT360,PHY303,SOC317</t>
   </si>
   <si>
     <t xml:space="preserve">MED41</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CHD416,CHY212,CHY213,CHY400,DES211,ECO367,ECO403,EED201,ENG104,ENG341,HIS101,HIS314,MAT220,MED101,MED104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHY212,CHY213,DES211,ECO367,ECO403,EED201,ENG341,HIS101,HIS314,MAT220</t>
+    <t xml:space="preserve">BIO401,CHD413,CHY212,CHY213,CHY400,CSD337,DES211,ECO102,ECO403,EED201,ENG104,ENG341,HIS101,HIS314,MAT220,MED101,MED104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHY212,CHY213,DES211,ECO403,EED201,ENG341,HIS101,HIS314,MAT220</t>
   </si>
   <si>
     <t xml:space="preserve">MED42</t>
   </si>
   <si>
-    <t xml:space="preserve">ART111,BIO401,CED304,CED305,CHD317,CHD416,CHY212,CHY213,CHY351,CHY400,CSD206,CSD301,CSD339,DES211,ECO213,ECO367,ECO403,EED201,EED302,EED353,EED356,EED373,ENG104,ENG341,HIS101,HIS201,HIS314,INT101,INT201,MAT101,MAT220,MAT280,MAT360,MED101,MED104,MED105,PHY101,PHY563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ART111,CED304,CHY212,CHY213,CHY351,CSD206,CSD301,DES211,ECO213,ECO367,ECO403,EED201,EED302,EED353,EED356,EED373,ENG341,HIS101,HIS201,HIS314,INT101,INT201,MAT101,MAT220,MAT280,MAT360,PHY101,PHY563</t>
+    <t xml:space="preserve">ART111,BIO401,CED304,CED305,CHD413,CHY212,CHY213,CHY351,CHY400,CSD206,CSD301,CSD311,CSD339,DES211,ECO102,ECO213,ECO403,ECO422,EED201,EED302,EED353,EED356,EED373,ENG104,ENG341,HIS314,INT101,INT201,MAT101,MAT150,MAT220,MAT280,MED101,MED104,MED105,PHY101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART111,CED304,CHY212,CHY213,CHY351,CSD206,CSD301,CSD311,DES211,ECO213,ECO403,ECO422,EED201,EED302,EED353,EED356,EED373,ENG341,HIS314,INT101,INT201,MAT101,MAT220,MAT280,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">MED43</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CHD416,CHY212,CHY213,CSD339,DES211,ECO213,EED201,ENG104,HIS314,INT201,MED104,PHY303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHY212,CHY213,DES211,ECO213,EED201,HIS314,INT201,PHY303</t>
+    <t xml:space="preserve">BIO401,CHY212,CHY213,CSD337,CSD339,DES211,ECO403,EED201,ENG104,HIS314,INT201,MED104,PHY303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHY212,CHY213,DES211,ECO403,EED201,HIS314,INT201,PHY303</t>
   </si>
   <si>
     <t xml:space="preserve">PHY1</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CED202,CED301,CED607,CHD471,CHY212,CHY311,CHY323,ECO101,EED201,EED206,EED352,MAT103,MED303,PHY101,PHY255,SOC301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CED202,CHY212,CHY311,CHY323,ECO101,EED201,EED206,EED352,MED303,SOC301</t>
+    <t xml:space="preserve">BIO401,CED202,CED301,CED607,CHD416,CHY212,CHY311,CHY323,ECO101,EED201,EED206,EED352,MAT100,MAT103,MAT184,MED303,PHY101,PHY255,SOC301,SOC306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CED202,CHY212,CHY311,CHY323,ECO101,EED201,EED206,EED352,MAT184,MED303,SOC301,SOC306</t>
   </si>
   <si>
     <t xml:space="preserve">PHY2</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO401,CED301,CED607,CHD210,CHD211,CHD416,CHD471,CHY212,CHY311,CHY323,DES211,ECO101,EED201,EED206,ENG104,HIS318,MAT103,MAT440,MED104,MED208,MED303,MED309,MED412,PHY101,PHY255,PHY301,SOC306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD210,CHD211,CHY212,CHY311,CHY323,DES211,ECO101,EED201,EED206,HIS318,MAT440,MED104,MED303,MED309,SOC306</t>
+    <t xml:space="preserve">BIO401,CED301,CED607,CHD211,CHD416,CHY212,CHY323,DES211,ECO101,EED201,ENG104,ENG342,HIS318,INT250,MAT100,MAT103,MED104,MED208,MED412,PHY101,PHY255,PHY301,SOC306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHD211,CHY212,CHY323,DES211,ECO101,EED201,ENG342,HIS318,INT250,MED104,SOC306</t>
   </si>
   <si>
     <t xml:space="preserve">PHY3</t>
   </si>
   <si>
-    <t xml:space="preserve">CHD211,CHD416,CHD471,CHY212,EED352,PHY101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD211,CHY212,EED352</t>
+    <t xml:space="preserve">CHY212,ECO403,EED352,INT250,PHY101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHY212,ECO403,EED352,INT250</t>
   </si>
   <si>
     <t xml:space="preserve">PHY4</t>
   </si>
   <si>
-    <t xml:space="preserve">ART110,BIO103,BIO104,BIO401,CED307,CHD214,CHD319,CHD416,CHD471,CHY212,CHY321,CHY323,CHY400,CSD101,CSD311,CSD337,DES101,ECO108,ECO415,EED201,EED206,EED305,EED306,EED352,EED361,EED376,ENG104,HIS203,HIS216,HIS305,INT202,MAT330,MED104,MED203,MED208,MED301,MED315,MED412,PHY101,PHY205,PHY303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ART110,BIO103,BIO104,CED307,CHD214,CHD319,CHY212,CHY323,CSD101,CSD311,DES101,ECO415,EED201,EED206,EED305,EED306,EED352,EED361,EED376,HIS203,HIS216,HIS305,INT202,MAT330,MED104</t>
+    <t xml:space="preserve">ART110,BDA483,BIO103,BIO302,BIO401,CED304,CED305,CED307,CHD211,CHD319,CHD413,CHY212,CHY321,CHY323,CHY351,CSD101,CSD301,CSD411,DES211,ECO415,ECO422,EED201,EED206,EED305,EED306,EED352,EED361,EED373,ENG240,ENG341,HIS203,INT202,INT250,MAT020,MAT160,MAT330,MAT399,MED104,MED203,MED208,MED315,PHY101,PHY105,SOC317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART110,BDA483,BIO103,BIO302,CED304,CED307,CHD211,CHD319,CHY212,CHY323,CHY351,CSD101,CSD301,DES211,ECO415,ECO422,EED201,EED206,EED305,EED306,EED352,EED361,EED373,ENG240,ENG341,HIS203,INT202,INT250,MAT160,MAT330,MED104,SOC317</t>
   </si>
   <si>
     <t xml:space="preserve">SOC1</t>
   </si>
   <si>
-    <t xml:space="preserve">CED206,CED301,CED305,CED431,CED607,CHD210,CHD211,CHD471,CHY212,CHY323,CHY351,CHY400,DES211,ECO101,ECO221,ECO422,EED206,ENG141,ENG342,HIS305,HIS318,INT101,INT105,MAT103,MAT150,MAT399,MAT442,MED104,MED301,MED412,PHY101,PHY255,PHY301,SOC306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CED206,CHD210,CHD211,CHY212,CHY323,CHY351,DES211,ECO101,ECO221,ECO422,EED206,ENG141,ENG342,HIS305,HIS318,INT101,INT105,MAT442,MED104,PHY101,PHY301</t>
+    <t xml:space="preserve">BIO104,CED305,CED431,CHD210,CHY212,CHY323,CHY351,CHY400,CSD301,DES211,ECO402,ECO422,EED206,EED373,ENG141,INT101,INT105,INT203,MAT184,MAT390,MAT440,MAT442,MED104,MED208,PHY101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIO104,CHD210,CHY212,CHY323,CHY351,CSD301,DES211,ECO402,ECO422,EED206,EED373,ENG141,INT101,INT105,INT203,MAT184,MAT390,MAT440,MAT442,MED104,PHY101</t>
   </si>
   <si>
     <t xml:space="preserve">SOC2</t>
   </si>
   <si>
-    <t xml:space="preserve">ART110,ART111,BDA483,BDA496,BIO101,BIO401,CED301,CED304,CED307,CED607,CHD211,CHD315,CHD471,CHY212,CHY323,CHY351,COM197,CSD101,CSD411,ECO101,ECO415,EED201,EED206,EED302,EED305,EED356,EED373,HIS101,HIS204,HIS305,HIS318,MAT103,MAT240,MAT390,MAT422,MAT440,MAT494,MED101,MED203,MED208,MED318,MED409,PHY101,PHY105,PHY205,PHY255,PHY303,SOC306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ART110,ART111,BDA483,BDA496,BIO101,CED304,CED307,CHD211,CHD315,CHY212,CHY323,CHY351,COM197,CSD101,ECO101,ECO415,EED201,EED206,EED302,EED305,EED356,EED373,HIS101,HIS204,HIS305,HIS318,MAT240,MAT390,MAT422,MAT440,MAT494,MED101,PHY101,PHY105,PHY205,PHY303</t>
+    <t xml:space="preserve">ART110,ART111,BDA483,BDA496,BIO401,CED301,CED304,CED307,CED607,CHD211,CHD416,CHY212,CHY323,CHY351,COM197,CSD101,CSD301,CSD304,CSD339,CSD411,ECO101,ECO415,EED201,EED206,EED302,EED305,EED356,EED373,HIS201,HIS318,MAT100,MAT103,MAT240,MAT399,MAT422,MAT440,MAT494,MED101,MED203,MED208,MED318,MED409,PHY101,PHY105,PHY255,PHY303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART110,ART111,BDA483,BDA496,CED304,CED307,CHD211,CHY212,CHY323,CHY351,COM197,CSD101,CSD301,CSD304,ECO101,ECO415,EED201,EED206,EED302,EED305,EED356,EED373,HIS201,HIS318,MAT240,MAT422,MAT440,MAT494,MED101,PHY101,PHY105,PHY303</t>
   </si>
   <si>
     <t xml:space="preserve">SOC3</t>
   </si>
   <si>
-    <t xml:space="preserve">BIO103,BIO401,CHD319,CHD372,CHD471,CHY212,CHY323,CHY400,CSD402,DES211,ECO367,EED201,EED206,EED306,EED376,HIS203,HIS305,INT133,MAT399,MED104,MED301,MED314,PHY203,SOC201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO103,CHD319,CHD372,CHY212,CHY323,DES211,ECO367,EED201,EED206,EED306,EED376,HIS203,HIS305,INT133,MED104,MED314,PHY203</t>
+    <t xml:space="preserve">BDA483,BIO401,CHD413,CHY212,CHY323,CHY400,CSD101,CSD320,DES211,EED201,EED206,EED306,ENG341,HIS203,MAT160,MAT330,MAT390,MAT440,MED104,MED208,MED301,MED314,PHY203,SOC201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDA483,CHY212,CHY323,CSD101,DES211,EED201,EED206,EED306,ENG341,HIS203,MAT160,MAT330,MAT390,MAT440,MED104,MED314,PHY203</t>
   </si>
   <si>
     <t xml:space="preserve">SOC4</t>
   </si>
   <si>
-    <t xml:space="preserve">ART111,BDA483,BDA496,BIO101,BIO102,BIO201,BIO202,BIO204,BIO303,BIO304,BIO401,CED103,CED201,CED206,CED301,CED302,CED305,CED307,CED431,CED607,CHD210,CHD211,CHD313,CHD315,CHD317,CHD416,CHD471,CHY111,CHY211,CHY212,CHY213,CHY311,CHY313,CHY323,CHY343,CHY400,COM192,CSD101,CSD205,CSD206,CSD301,CSD304,CSD337,CSD339,DES211,ECO101,ECO102,ECO213,ECO367,ECO402,ECO403,ECO415,ECO422,EED201,EED206,EED302,EED306,EED353,EED354,EED356,EED364,EED371,EED375,ENG104,ENG141,ENG241,ENG242,ENG340,ENG341,ENG342,ENG440,ENG441,HIS102,HIS201,HIS204,HIS305,HIS314,HIS317,HIS318,INT105,INT133,INT201,INT203,MAT020,MAT100,MAT101,MAT103,MAT150,MAT205,MAT220,MAT240,MAT330,MAT360,MAT399,MAT440,MAT442,MED101,MED104,MED105,MED208,MED211,MED301,MED309,MED314,MED318,MED409,PHY105,PHY203,PHY207,PHY255,PHY301,PHY303,PHY305,PHY413,PHY417,PHY563,SOC101,SOC201,SOC306,SOC317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ART111,BDA483,BDA496,BIO101,BIO102,BIO201,BIO202,BIO204,BIO303,BIO304,CED201,CED206,CED302,CED307,CHD210,CHD211,CHD315,CHY111,CHY211,CHY212,CHY213,CHY311,CHY323,COM192,CSD101,CSD205,CSD206,CSD301,CSD304,DES211,ECO101,ECO213,ECO367,ECO402,ECO403,ECO415,ECO422,EED201,EED206,EED302,EED306,EED353,EED354,EED356,EED371,ENG141,ENG241,ENG242,ENG340,ENG341,ENG342,ENG440,ENG441,HIS102,HIS201,HIS204,HIS305,HIS314,HIS317,HIS318,INT105,INT133,INT201,INT203,MAT101,MAT220,MAT240,MAT330,MAT360,MAT440,MAT442,MED101,MED104,MED105,MED211,MED309,MED314,PHY105,PHY203,PHY207,PHY301,PHY303,PHY305,PHY413,PHY417,PHY563</t>
+    <t xml:space="preserve">ART110,BDA496,BIO101,BIO104,BIO201,BIO202,BIO301,BIO303,BIO304,BIO401,CED103,CED202,CED206,CED301,CED302,CED303,CED304,CED305,CED431,CED607,CHD210,CHD211,CHD313,CHD317,CHD319,CHD372,CHD413,CHD416,CHD471,CHY111,CHY221,CHY311,CHY313,CHY323,CHY343,CHY351,CHY400,COM196,COM197,COM199,CSD205,CSD207,CSD301,CSD311,CSD320,CSD337,CSD411,CSD429,DES101,DES211,ECO101,ECO221,ECO301,ECO402,ECO422,EED103,EED201,EED202,EED209,EED304,EED305,EED352,EED354,EED364,EED371,EED373,EED375,EED376,ENG104,ENG141,ENG241,ENG341,ENG342,ENG440,HIS102,HIS305,HIS314,HIS317,HIS318,INT101,INT105,INT133,INT203,INT250,INT254,MAT100,MAT103,MAT184,MAT205,MAT240,MAT280,MAT390,MAT399,MAT422,MAT440,MAT442,MAT494,MED101,MED104,MED201,MED203,MED208,MED301,MED303,MED308,MED309,MED318,MED409,MED410,MED412,PHY101,PHY105,PHY201,PHY205,PHY207,PHY255,PHY301,PHY305,PHY307,PHY413,PHY417,SOC101,SOC201,SOC204,SOC301,SOC306,SOC317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART110,BDA496,BIO101,BIO104,BIO201,BIO202,BIO301,BIO303,BIO304,CED202,CED206,CED302,CED304,CHD210,CHD211,CHD319,CHD372,CHY111,CHY221,CHY311,CHY323,CHY351,COM196,COM197,COM199,CSD205,CSD207,CSD301,CSD311,DES101,DES211,ECO101,ECO221,ECO301,ECO402,ECO422,EED201,EED202,EED209,EED304,EED305,EED352,EED354,EED371,EED373,EED376,ENG141,ENG241,ENG341,ENG342,ENG440,HIS102,HIS305,HIS314,HIS317,HIS318,INT101,INT105,INT133,INT203,INT250,INT254,MAT184,MAT240,MAT280,MAT390,MAT422,MAT440,MAT442,MAT494,MED101,MED104,MED303,MED309,PHY101,PHY105,PHY201,PHY205,PHY207,PHY301,PHY305,PHY307,PHY413,PHY417</t>
   </si>
 </sst>
 </file>
@@ -761,15 +752,13 @@
   </sheetPr>
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P61" activeCellId="0" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,7 +783,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>6</v>
@@ -803,539 +792,539 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>13</v>
-      </c>
       <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>91</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -1346,7 +1335,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -1357,665 +1346,665 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>15</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>128</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E55" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E57" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>21</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>24</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
